--- a/data and error/err.xlsx
+++ b/data and error/err.xlsx
@@ -7,9 +7,8 @@
     <workbookView xWindow="480" yWindow="15" windowWidth="14160" windowHeight="2910"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="err" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -84,7 +83,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$1</c:f>
+              <c:f>err!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -98,159 +97,159 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$51</c:f>
+              <c:f>err!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0.91986620335198699</c:v>
+                  <c:v>0.91975374334789695</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27567047661870098</c:v>
+                  <c:v>0.25316149764943002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29740119302018497</c:v>
+                  <c:v>0.20723188948782401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.280902560698016</c:v>
+                  <c:v>0.238274068259368</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29669123157773097</c:v>
+                  <c:v>0.29841966031730599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.210885121035392</c:v>
+                  <c:v>0.27438948939507102</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.42038022852683998</c:v>
+                  <c:v>0.23360816749740601</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.26565515871115702</c:v>
+                  <c:v>0.214011696706355</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.271630838690327</c:v>
+                  <c:v>0.20120563894091101</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.27093706847906501</c:v>
+                  <c:v>0.24146579949653299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.22260439562072801</c:v>
+                  <c:v>0.438097498877911</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.22641392740897401</c:v>
+                  <c:v>0.242735174575997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.235325209905689</c:v>
+                  <c:v>0.15953956074689099</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.19622824511350601</c:v>
+                  <c:v>0.26848306662739402</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.19804763944072501</c:v>
+                  <c:v>0.25871456104795598</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.20697656572699899</c:v>
+                  <c:v>0.158591650394204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.19388744412877701</c:v>
+                  <c:v>0.32427806914179702</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.255605115959889</c:v>
+                  <c:v>0.192307892665118</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.40117351828454101</c:v>
+                  <c:v>0.232497110538327</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.430588775236596</c:v>
+                  <c:v>0.26849818756370603</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.19961106419458599</c:v>
+                  <c:v>0.339936618463897</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.41396479256277702</c:v>
+                  <c:v>0.24683578218701899</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.1974958264519097E-2</c:v>
+                  <c:v>0.23310377915428099</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.16715105643677799</c:v>
+                  <c:v>0.26175324276109702</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.10384525366835801</c:v>
+                  <c:v>0.38588730731869603</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.9860664741024499E-2</c:v>
+                  <c:v>9.6084567214901606E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.28163204377362799</c:v>
+                  <c:v>0.34378238978165199</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.30585460148118399</c:v>
+                  <c:v>0.396004524794421</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.361705507187985</c:v>
+                  <c:v>0.20681526877560399</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.30027904280825302</c:v>
+                  <c:v>0.22220578571834301</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.43784551168055702</c:v>
+                  <c:v>0.163026779378454</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.26211184820082101</c:v>
+                  <c:v>0.23557675699428901</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.283079555526627</c:v>
+                  <c:v>9.9032410648659003E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.112158232669313</c:v>
+                  <c:v>0.243311950835948</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.14191777456565099</c:v>
+                  <c:v>0.10336774837459101</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.276231278333397</c:v>
+                  <c:v>0.170975359887237</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.28880426109816298</c:v>
+                  <c:v>0.198054703156888</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.21499081153953101</c:v>
+                  <c:v>0.30904099943337499</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.13448509938473499</c:v>
+                  <c:v>0.31612671345870402</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.0281638241455298E-2</c:v>
+                  <c:v>0.36354175190451599</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.11013996916428299</c:v>
+                  <c:v>0.34797691788701102</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8.8956684803714395E-2</c:v>
+                  <c:v>0.20888170011458199</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.23249492176973399</c:v>
+                  <c:v>6.9609566559779804E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.5713970666756899E-2</c:v>
+                  <c:v>3.3877685062402199E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.108949504589946</c:v>
+                  <c:v>0.18444083128949099</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.20422903470088799</c:v>
+                  <c:v>6.7092066391229901E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.32889659181109698</c:v>
+                  <c:v>0.34001040119755699</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.103178885120534</c:v>
+                  <c:v>0.22031150997171001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.33905539175518201</c:v>
+                  <c:v>0.237927134049461</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.111179585690415</c:v>
+                  <c:v>6.0852527606549897E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -261,7 +260,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>err!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -275,183 +274,183 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$51</c:f>
+              <c:f>err!$B$2:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0.91986620365056804</c:v>
+                  <c:v>0.91977869917096</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.419197830640406</c:v>
+                  <c:v>0.279340191628632</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.262693791651674</c:v>
+                  <c:v>0.28658603884558997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26585775115850502</c:v>
+                  <c:v>0.30218201532597699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.237316387697243</c:v>
+                  <c:v>0.23681319229602099</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.30453039672652898</c:v>
+                  <c:v>0.27536366802242102</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23765329884580799</c:v>
+                  <c:v>0.44182386111456801</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25800619952148102</c:v>
+                  <c:v>0.24708607601931301</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.26342833350456002</c:v>
+                  <c:v>0.27582017155855298</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.24079588297242399</c:v>
+                  <c:v>0.22674242991403801</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.28732255842252002</c:v>
+                  <c:v>0.19736274184355901</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.177130880164557</c:v>
+                  <c:v>0.30549890588062401</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.30100796172306599</c:v>
+                  <c:v>0.15397521717367901</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.15344541616330001</c:v>
+                  <c:v>0.21982688177965401</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.27330770454587899</c:v>
+                  <c:v>0.32360721683440902</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.391894684202025</c:v>
+                  <c:v>0.20347393918918799</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.178991836588866</c:v>
+                  <c:v>0.43793540194094799</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.18899421015314699</c:v>
+                  <c:v>0.38909471948878899</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.22605739873905301</c:v>
+                  <c:v>0.15672984437989901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.129410395563927</c:v>
+                  <c:v>0.23663416364190501</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.16084364538898299</c:v>
+                  <c:v>0.131111394298906</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.35712915841835702</c:v>
+                  <c:v>0.246614131951335</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.8818700083085201E-2</c:v>
+                  <c:v>0.22814660441746401</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.174939702304408</c:v>
+                  <c:v>0.241618903531754</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.226921546661455</c:v>
+                  <c:v>7.0791327325005898E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.25513425467665601</c:v>
+                  <c:v>0.33987701999306702</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.4559174029712794E-2</c:v>
+                  <c:v>0.19109371735700001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.228435742550297</c:v>
+                  <c:v>0.23017529992725499</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.2284796566945905E-2</c:v>
+                  <c:v>0.24104000960243799</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.46781863388775802</c:v>
+                  <c:v>0.230062778606343</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.36461567582633603</c:v>
+                  <c:v>0.39472654443542898</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.11110017750310799</c:v>
+                  <c:v>0.179624670757359</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.23114546009231299</c:v>
+                  <c:v>0.38563189321754698</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.22463892565539201</c:v>
+                  <c:v>0.22069441556298999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.112862672968424</c:v>
+                  <c:v>0.30343200285157701</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.23476244624056999</c:v>
+                  <c:v>8.2765443859054696E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.16788773406586899</c:v>
+                  <c:v>6.6714554971633894E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7.5780825912198493E-2</c:v>
+                  <c:v>0.21362296621781701</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.15400196144851999</c:v>
+                  <c:v>7.2103402112041706E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.14758190316868899</c:v>
+                  <c:v>0.285090295689712</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.97462840337478E-2</c:v>
+                  <c:v>9.3790660819050103E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.460288805733783</c:v>
+                  <c:v>0.16506605355006199</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.64669652891707E-2</c:v>
+                  <c:v>7.3489479731813301E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.2299696851489302E-2</c:v>
+                  <c:v>9.3267308092890799E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.33593350402406402</c:v>
+                  <c:v>7.4347629892742406E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.36089898648115099</c:v>
+                  <c:v>0.26473294339842501</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8.9895787384412507E-2</c:v>
+                  <c:v>0.21500388092828501</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.24805536006281301</c:v>
+                  <c:v>0.38393894627380598</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.2362224807071598E-2</c:v>
+                  <c:v>0.28558844347669798</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.31706221032575199</c:v>
+                  <c:v>0.17830099972461999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="83881344"/>
-        <c:axId val="83936384"/>
+        <c:axId val="113334144"/>
+        <c:axId val="113335680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83881344"/>
+        <c:axId val="113334144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83936384"/>
+        <c:crossAx val="113335680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83936384"/>
+        <c:axId val="113335680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -459,7 +458,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83881344"/>
+        <c:crossAx val="113334144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -483,19 +482,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -801,7 +800,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -816,14 +815,14 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>0.91986620335198699</v>
+        <v>0.91975374334789695</v>
       </c>
       <c r="B2">
-        <v>0.91986620365056804</v>
+        <v>0.91977869917096</v>
       </c>
       <c r="D2">
         <f>AVERAGE(A2:B2)</f>
-        <v>0.91986620350127746</v>
+        <v>0.91976622125942842</v>
       </c>
       <c r="F2">
         <f>MATCH(MIN(D:D),D:D, 0)</f>
@@ -835,590 +834,590 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>0.27567047661870098</v>
+        <v>0.25316149764943002</v>
       </c>
       <c r="B3">
-        <v>0.419197830640406</v>
+        <v>0.279340191628632</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D51" si="0">AVERAGE(A3:B3)</f>
-        <v>0.34743415362955349</v>
+        <v>0.26625084463903104</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>0.29740119302018497</v>
+        <v>0.20723188948782401</v>
       </c>
       <c r="B4">
-        <v>0.262693791651674</v>
+        <v>0.28658603884558997</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0.28004749233592952</v>
+        <v>0.24690896416670699</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>0.280902560698016</v>
+        <v>0.238274068259368</v>
       </c>
       <c r="B5">
-        <v>0.26585775115850502</v>
+        <v>0.30218201532597699</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0.27338015592826048</v>
+        <v>0.27022804179267251</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>0.29669123157773097</v>
+        <v>0.29841966031730599</v>
       </c>
       <c r="B6">
-        <v>0.237316387697243</v>
+        <v>0.23681319229602099</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0.26700380963748699</v>
+        <v>0.26761642630666349</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>0.210885121035392</v>
+        <v>0.27438948939507102</v>
       </c>
       <c r="B7">
-        <v>0.30453039672652898</v>
+        <v>0.27536366802242102</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0.25770775888096048</v>
+        <v>0.27487657870874604</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>0.42038022852683998</v>
+        <v>0.23360816749740601</v>
       </c>
       <c r="B8">
-        <v>0.23765329884580799</v>
+        <v>0.44182386111456801</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0.32901676368632399</v>
+        <v>0.33771601430598702</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>0.26565515871115702</v>
+        <v>0.214011696706355</v>
       </c>
       <c r="B9">
-        <v>0.25800619952148102</v>
+        <v>0.24708607601931301</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0.26183067911631902</v>
+        <v>0.23054888636283399</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>0.271630838690327</v>
+        <v>0.20120563894091101</v>
       </c>
       <c r="B10">
-        <v>0.26342833350456002</v>
+        <v>0.27582017155855298</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>0.26752958609744348</v>
+        <v>0.23851290524973201</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>0.27093706847906501</v>
+        <v>0.24146579949653299</v>
       </c>
       <c r="B11">
-        <v>0.24079588297242399</v>
+        <v>0.22674242991403801</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>0.2558664757257445</v>
+        <v>0.2341041147052855</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>0.22260439562072801</v>
+        <v>0.438097498877911</v>
       </c>
       <c r="B12">
-        <v>0.28732255842252002</v>
+        <v>0.19736274184355901</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>0.25496347702162403</v>
+        <v>0.317730120360735</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>0.22641392740897401</v>
+        <v>0.242735174575997</v>
       </c>
       <c r="B13">
-        <v>0.177130880164557</v>
+        <v>0.30549890588062401</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>0.2017724037867655</v>
+        <v>0.27411704022831052</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>0.235325209905689</v>
+        <v>0.15953956074689099</v>
       </c>
       <c r="B14">
-        <v>0.30100796172306599</v>
+        <v>0.15397521717367901</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>0.26816658581437747</v>
+        <v>0.15675738896028502</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>0.19622824511350601</v>
+        <v>0.26848306662739402</v>
       </c>
       <c r="B15">
-        <v>0.15344541616330001</v>
+        <v>0.21982688177965401</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>0.174836830638403</v>
+        <v>0.244154974203524</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>0.19804763944072501</v>
+        <v>0.25871456104795598</v>
       </c>
       <c r="B16">
-        <v>0.27330770454587899</v>
+        <v>0.32360721683440902</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>0.235677671993302</v>
+        <v>0.29116088894118253</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.20697656572699899</v>
+        <v>0.158591650394204</v>
       </c>
       <c r="B17">
-        <v>0.391894684202025</v>
+        <v>0.20347393918918799</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>0.29943562496451198</v>
+        <v>0.18103279479169598</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.19388744412877701</v>
+        <v>0.32427806914179702</v>
       </c>
       <c r="B18">
-        <v>0.178991836588866</v>
+        <v>0.43793540194094799</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>0.18643964035882149</v>
+        <v>0.38110673554137253</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.255605115959889</v>
+        <v>0.192307892665118</v>
       </c>
       <c r="B19">
-        <v>0.18899421015314699</v>
+        <v>0.38909471948878899</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>0.22229966305651799</v>
+        <v>0.29070130607695349</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.40117351828454101</v>
+        <v>0.232497110538327</v>
       </c>
       <c r="B20">
-        <v>0.22605739873905301</v>
+        <v>0.15672984437989901</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>0.31361545851179701</v>
+        <v>0.194613477459113</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.430588775236596</v>
+        <v>0.26849818756370603</v>
       </c>
       <c r="B21">
-        <v>0.129410395563927</v>
+        <v>0.23663416364190501</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>0.27999958540026149</v>
+        <v>0.25256617560280553</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.19961106419458599</v>
+        <v>0.339936618463897</v>
       </c>
       <c r="B22">
-        <v>0.16084364538898299</v>
+        <v>0.131111394298906</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>0.18022735479178448</v>
+        <v>0.2355240063814015</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.41396479256277702</v>
+        <v>0.24683578218701899</v>
       </c>
       <c r="B23">
-        <v>0.35712915841835702</v>
+        <v>0.246614131951335</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>0.38554697549056705</v>
+        <v>0.24672495706917699</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>9.1974958264519097E-2</v>
+        <v>0.23310377915428099</v>
       </c>
       <c r="B24">
-        <v>9.8818700083085201E-2</v>
+        <v>0.22814660441746401</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>9.5396829173802156E-2</v>
+        <v>0.23062519178587249</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.16715105643677799</v>
+        <v>0.26175324276109702</v>
       </c>
       <c r="B25">
-        <v>0.174939702304408</v>
+        <v>0.241618903531754</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>0.171045379370593</v>
+        <v>0.25168607314642549</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.10384525366835801</v>
+        <v>0.38588730731869603</v>
       </c>
       <c r="B26">
-        <v>0.226921546661455</v>
+        <v>7.0791327325005898E-2</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>0.16538340016490649</v>
+        <v>0.22833931732185098</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>8.9860664741024499E-2</v>
+        <v>9.6084567214901606E-2</v>
       </c>
       <c r="B27">
-        <v>0.25513425467665601</v>
+        <v>0.33987701999306702</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>0.17249745970884026</v>
+        <v>0.21798079360398431</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.28163204377362799</v>
+        <v>0.34378238978165199</v>
       </c>
       <c r="B28">
-        <v>7.4559174029712794E-2</v>
+        <v>0.19109371735700001</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>0.17809560890167039</v>
+        <v>0.26743805356932598</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.30585460148118399</v>
+        <v>0.396004524794421</v>
       </c>
       <c r="B29">
-        <v>0.228435742550297</v>
+        <v>0.23017529992725499</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>0.26714517201574051</v>
+        <v>0.313089912360838</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.361705507187985</v>
+        <v>0.20681526877560399</v>
       </c>
       <c r="B30">
-        <v>7.2284796566945905E-2</v>
+        <v>0.24104000960243799</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>0.21699515187746546</v>
+        <v>0.22392763918902098</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.30027904280825302</v>
+        <v>0.22220578571834301</v>
       </c>
       <c r="B31">
-        <v>0.46781863388775802</v>
+        <v>0.230062778606343</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>0.38404883834800552</v>
+        <v>0.22613428216234299</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.43784551168055702</v>
+        <v>0.163026779378454</v>
       </c>
       <c r="B32">
-        <v>0.36461567582633603</v>
+        <v>0.39472654443542898</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>0.4012305937534465</v>
+        <v>0.27887666190694149</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.26211184820082101</v>
+        <v>0.23557675699428901</v>
       </c>
       <c r="B33">
-        <v>0.11110017750310799</v>
+        <v>0.179624670757359</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>0.18660601285196449</v>
+        <v>0.20760071387582402</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.283079555526627</v>
+        <v>9.9032410648659003E-2</v>
       </c>
       <c r="B34">
-        <v>0.23114546009231299</v>
+        <v>0.38563189321754698</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>0.25711250780946998</v>
+        <v>0.24233215193310298</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.112158232669313</v>
+        <v>0.243311950835948</v>
       </c>
       <c r="B35">
-        <v>0.22463892565539201</v>
+        <v>0.22069441556298999</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>0.16839857916235251</v>
+        <v>0.232003183199469</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.14191777456565099</v>
+        <v>0.10336774837459101</v>
       </c>
       <c r="B36">
-        <v>0.112862672968424</v>
+        <v>0.30343200285157701</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>0.12739022376703751</v>
+        <v>0.20339987561308401</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.276231278333397</v>
+        <v>0.170975359887237</v>
       </c>
       <c r="B37">
-        <v>0.23476244624056999</v>
+        <v>8.2765443859054696E-2</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>0.25549686228698348</v>
+        <v>0.12687040187314585</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.28880426109816298</v>
+        <v>0.198054703156888</v>
       </c>
       <c r="B38">
-        <v>0.16788773406586899</v>
+        <v>6.6714554971633894E-2</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>0.22834599758201599</v>
+        <v>0.13238462906426096</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.21499081153953101</v>
+        <v>0.30904099943337499</v>
       </c>
       <c r="B39">
-        <v>7.5780825912198493E-2</v>
+        <v>0.21362296621781701</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>0.14538581872586476</v>
+        <v>0.261331982825596</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.13448509938473499</v>
+        <v>0.31612671345870402</v>
       </c>
       <c r="B40">
-        <v>0.15400196144851999</v>
+        <v>7.2103402112041706E-2</v>
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>0.14424353041662749</v>
+        <v>0.19411505778537286</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>9.0281638241455298E-2</v>
+        <v>0.36354175190451599</v>
       </c>
       <c r="B41">
-        <v>0.14758190316868899</v>
+        <v>0.285090295689712</v>
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>0.11893177070507215</v>
+        <v>0.32431602379711399</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.11013996916428299</v>
+        <v>0.34797691788701102</v>
       </c>
       <c r="B42">
-        <v>5.97462840337478E-2</v>
+        <v>9.3790660819050103E-2</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
-        <v>8.4943126599015401E-2</v>
+        <v>0.22088378935303055</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>8.8956684803714395E-2</v>
+        <v>0.20888170011458199</v>
       </c>
       <c r="B43">
-        <v>0.460288805733783</v>
+        <v>0.16506605355006199</v>
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
-        <v>0.27462274526874869</v>
+        <v>0.18697387683232197</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.23249492176973399</v>
+        <v>6.9609566559779804E-2</v>
       </c>
       <c r="B44">
-        <v>4.64669652891707E-2</v>
+        <v>7.3489479731813301E-2</v>
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>0.13948094352945234</v>
+        <v>7.1549523145796545E-2</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>4.5713970666756899E-2</v>
+        <v>3.3877685062402199E-2</v>
       </c>
       <c r="B45">
-        <v>5.2299696851489302E-2</v>
+        <v>9.3267308092890799E-2</v>
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
-        <v>4.9006833759123097E-2</v>
+        <v>6.3572496577646492E-2</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.108949504589946</v>
+        <v>0.18444083128949099</v>
       </c>
       <c r="B46">
-        <v>0.33593350402406402</v>
+        <v>7.4347629892742406E-2</v>
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
-        <v>0.22244150430700502</v>
+        <v>0.12939423059111671</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.20422903470088799</v>
+        <v>6.7092066391229901E-2</v>
       </c>
       <c r="B47">
-        <v>0.36089898648115099</v>
+        <v>0.26473294339842501</v>
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
-        <v>0.28256401059101949</v>
+        <v>0.16591250489482745</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.32889659181109698</v>
+        <v>0.34001040119755699</v>
       </c>
       <c r="B48">
-        <v>8.9895787384412507E-2</v>
+        <v>0.21500388092828501</v>
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
-        <v>0.20939618959775474</v>
+        <v>0.27750714106292101</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.103178885120534</v>
+        <v>0.22031150997171001</v>
       </c>
       <c r="B49">
-        <v>0.24805536006281301</v>
+        <v>0.38393894627380598</v>
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
-        <v>0.1756171225916735</v>
+        <v>0.30212522812275799</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.33905539175518201</v>
+        <v>0.237927134049461</v>
       </c>
       <c r="B50">
-        <v>6.2362224807071598E-2</v>
+        <v>0.28558844347669798</v>
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
-        <v>0.2007088082811268</v>
+        <v>0.26175778876307948</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.111179585690415</v>
+        <v>6.0852527606549897E-2</v>
       </c>
       <c r="B51">
-        <v>0.31706221032575199</v>
+        <v>0.17830099972461999</v>
       </c>
       <c r="D51">
         <f t="shared" si="0"/>
-        <v>0.21412089800808348</v>
+        <v>0.11957676366558495</v>
       </c>
     </row>
   </sheetData>
@@ -1437,16 +1436,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>